--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Il16-Grin2d.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Il16-Grin2d.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Il16</t>
   </si>
   <si>
     <t>Grin2d</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.96407081780374</v>
+        <v>7.933820999999999</v>
       </c>
       <c r="H2">
-        <v>6.96407081780374</v>
+        <v>23.801463</v>
       </c>
       <c r="I2">
-        <v>0.3756044143118549</v>
+        <v>0.3933990084177585</v>
       </c>
       <c r="J2">
-        <v>0.3756044143118549</v>
+        <v>0.3933990084177585</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.160000525350477</v>
+        <v>0.1653213333333333</v>
       </c>
       <c r="N2">
-        <v>0.160000525350477</v>
+        <v>0.495964</v>
       </c>
       <c r="O2">
-        <v>0.0705745485542152</v>
+        <v>0.07076294988206985</v>
       </c>
       <c r="P2">
-        <v>0.0705745485542152</v>
+        <v>0.07076294988206984</v>
       </c>
       <c r="Q2">
-        <v>1.114254989426525</v>
+        <v>1.311629866148</v>
       </c>
       <c r="R2">
-        <v>1.114254989426525</v>
+        <v>11.804668795332</v>
       </c>
       <c r="S2">
-        <v>0.02650811197502957</v>
+        <v>0.02783807431632182</v>
       </c>
       <c r="T2">
-        <v>0.02650811197502957</v>
+        <v>0.02783807431632181</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.96407081780374</v>
+        <v>7.933820999999999</v>
       </c>
       <c r="H3">
-        <v>6.96407081780374</v>
+        <v>23.801463</v>
       </c>
       <c r="I3">
-        <v>0.3756044143118549</v>
+        <v>0.3933990084177585</v>
       </c>
       <c r="J3">
-        <v>0.3756044143118549</v>
+        <v>0.3933990084177585</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.7670362879236</v>
+        <v>1.792633666666666</v>
       </c>
       <c r="N3">
-        <v>1.7670362879236</v>
+        <v>5.377901</v>
       </c>
       <c r="O3">
-        <v>0.779421117686677</v>
+        <v>0.7673059716707931</v>
       </c>
       <c r="P3">
-        <v>0.779421117686677</v>
+        <v>0.7673059716707932</v>
       </c>
       <c r="Q3">
-        <v>12.30576584672899</v>
+        <v>14.222434629907</v>
       </c>
       <c r="R3">
-        <v>12.30576584672899</v>
+        <v>128.001911669163</v>
       </c>
       <c r="S3">
-        <v>0.2927540124109957</v>
+        <v>0.3018574084083147</v>
       </c>
       <c r="T3">
-        <v>0.2927540124109957</v>
+        <v>0.3018574084083147</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.96407081780374</v>
+        <v>7.933820999999999</v>
       </c>
       <c r="H4">
-        <v>6.96407081780374</v>
+        <v>23.801463</v>
       </c>
       <c r="I4">
-        <v>0.3756044143118549</v>
+        <v>0.3933990084177585</v>
       </c>
       <c r="J4">
-        <v>0.3756044143118549</v>
+        <v>0.3933990084177585</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.340076878959675</v>
+        <v>0.3783146666666666</v>
       </c>
       <c r="N4">
-        <v>0.340076878959675</v>
+        <v>1.134944</v>
       </c>
       <c r="O4">
-        <v>0.1500043337591078</v>
+        <v>0.161931078447137</v>
       </c>
       <c r="P4">
-        <v>0.1500043337591078</v>
+        <v>0.161931078447137</v>
       </c>
       <c r="Q4">
-        <v>2.368319468572847</v>
+        <v>3.001480847007999</v>
       </c>
       <c r="R4">
-        <v>2.368319468572847</v>
+        <v>27.013327623072</v>
       </c>
       <c r="S4">
-        <v>0.0563422899258297</v>
+        <v>0.06370352569312197</v>
       </c>
       <c r="T4">
-        <v>0.0563422899258297</v>
+        <v>0.06370352569312197</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.576900886596</v>
+        <v>11.58194133333333</v>
       </c>
       <c r="H5">
-        <v>11.576900886596</v>
+        <v>34.745824</v>
       </c>
       <c r="I5">
-        <v>0.624395585688145</v>
+        <v>0.5742912823576415</v>
       </c>
       <c r="J5">
-        <v>0.624395585688145</v>
+        <v>0.5742912823576415</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.160000525350477</v>
+        <v>0.1653213333333333</v>
       </c>
       <c r="N5">
-        <v>0.160000525350477</v>
+        <v>0.495964</v>
       </c>
       <c r="O5">
-        <v>0.0705745485542152</v>
+        <v>0.07076294988206985</v>
       </c>
       <c r="P5">
-        <v>0.0705745485542152</v>
+        <v>0.07076294988206984</v>
       </c>
       <c r="Q5">
-        <v>1.852310223785763</v>
+        <v>1.914741983815111</v>
       </c>
       <c r="R5">
-        <v>1.852310223785763</v>
+        <v>17.232677854336</v>
       </c>
       <c r="S5">
-        <v>0.04406643657918563</v>
+        <v>0.04063854523118341</v>
       </c>
       <c r="T5">
-        <v>0.04406643657918563</v>
+        <v>0.0406385452311834</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.576900886596</v>
+        <v>11.58194133333333</v>
       </c>
       <c r="H6">
-        <v>11.576900886596</v>
+        <v>34.745824</v>
       </c>
       <c r="I6">
-        <v>0.624395585688145</v>
+        <v>0.5742912823576415</v>
       </c>
       <c r="J6">
-        <v>0.624395585688145</v>
+        <v>0.5742912823576415</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.7670362879236</v>
+        <v>1.792633666666666</v>
       </c>
       <c r="N6">
-        <v>1.7670362879236</v>
+        <v>5.377901</v>
       </c>
       <c r="O6">
-        <v>0.779421117686677</v>
+        <v>0.7673059716707931</v>
       </c>
       <c r="P6">
-        <v>0.779421117686677</v>
+        <v>0.7673059716707932</v>
       </c>
       <c r="Q6">
-        <v>20.45680396831003</v>
+        <v>20.76217795949155</v>
       </c>
       <c r="R6">
-        <v>20.45680396831003</v>
+        <v>186.859601635424</v>
       </c>
       <c r="S6">
-        <v>0.4866671052756813</v>
+        <v>0.4406571304314959</v>
       </c>
       <c r="T6">
-        <v>0.4866671052756813</v>
+        <v>0.440657130431496</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>11.58194133333333</v>
+      </c>
+      <c r="H7">
+        <v>34.745824</v>
+      </c>
+      <c r="I7">
+        <v>0.5742912823576415</v>
+      </c>
+      <c r="J7">
+        <v>0.5742912823576415</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.3783146666666666</v>
+      </c>
+      <c r="N7">
+        <v>1.134944</v>
+      </c>
+      <c r="O7">
+        <v>0.161931078447137</v>
+      </c>
+      <c r="P7">
+        <v>0.161931078447137</v>
+      </c>
+      <c r="Q7">
+        <v>4.381618274872888</v>
+      </c>
+      <c r="R7">
+        <v>39.434564473856</v>
+      </c>
+      <c r="S7">
+        <v>0.09299560669496217</v>
+      </c>
+      <c r="T7">
+        <v>0.09299560669496217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>11.576900886596</v>
-      </c>
-      <c r="H7">
-        <v>11.576900886596</v>
-      </c>
-      <c r="I7">
-        <v>0.624395585688145</v>
-      </c>
-      <c r="J7">
-        <v>0.624395585688145</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.340076878959675</v>
-      </c>
-      <c r="N7">
-        <v>0.340076878959675</v>
-      </c>
-      <c r="O7">
-        <v>0.1500043337591078</v>
-      </c>
-      <c r="P7">
-        <v>0.1500043337591078</v>
-      </c>
-      <c r="Q7">
-        <v>3.937036321539062</v>
-      </c>
-      <c r="R7">
-        <v>3.937036321539062</v>
-      </c>
-      <c r="S7">
-        <v>0.09366204383327811</v>
-      </c>
-      <c r="T7">
-        <v>0.09366204383327811</v>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.6516016666666666</v>
+      </c>
+      <c r="H8">
+        <v>1.954805</v>
+      </c>
+      <c r="I8">
+        <v>0.03230970922460003</v>
+      </c>
+      <c r="J8">
+        <v>0.03230970922460003</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.1653213333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.495964</v>
+      </c>
+      <c r="O8">
+        <v>0.07076294988206985</v>
+      </c>
+      <c r="P8">
+        <v>0.07076294988206984</v>
+      </c>
+      <c r="Q8">
+        <v>0.1077236563355556</v>
+      </c>
+      <c r="R8">
+        <v>0.96951290702</v>
+      </c>
+      <c r="S8">
+        <v>0.002286330334564622</v>
+      </c>
+      <c r="T8">
+        <v>0.002286330334564622</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.6516016666666666</v>
+      </c>
+      <c r="H9">
+        <v>1.954805</v>
+      </c>
+      <c r="I9">
+        <v>0.03230970922460003</v>
+      </c>
+      <c r="J9">
+        <v>0.03230970922460003</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.792633666666666</v>
+      </c>
+      <c r="N9">
+        <v>5.377901</v>
+      </c>
+      <c r="O9">
+        <v>0.7673059716707931</v>
+      </c>
+      <c r="P9">
+        <v>0.7673059716707932</v>
+      </c>
+      <c r="Q9">
+        <v>1.168083084922778</v>
+      </c>
+      <c r="R9">
+        <v>10.512747764305</v>
+      </c>
+      <c r="S9">
+        <v>0.02479143283098251</v>
+      </c>
+      <c r="T9">
+        <v>0.02479143283098252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.6516016666666666</v>
+      </c>
+      <c r="H10">
+        <v>1.954805</v>
+      </c>
+      <c r="I10">
+        <v>0.03230970922460003</v>
+      </c>
+      <c r="J10">
+        <v>0.03230970922460003</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.3783146666666666</v>
+      </c>
+      <c r="N10">
+        <v>1.134944</v>
+      </c>
+      <c r="O10">
+        <v>0.161931078447137</v>
+      </c>
+      <c r="P10">
+        <v>0.161931078447137</v>
+      </c>
+      <c r="Q10">
+        <v>0.2465104673244444</v>
+      </c>
+      <c r="R10">
+        <v>2.21859420592</v>
+      </c>
+      <c r="S10">
+        <v>0.005231946059052895</v>
+      </c>
+      <c r="T10">
+        <v>0.005231946059052895</v>
       </c>
     </row>
   </sheetData>
